--- a/Filtered_By_Region/Region IV-B/Region IV-B_LMS.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,7 +782,7 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>44788</v>
       </c>
       <c r="P2" t="inlineStr">
@@ -886,19 +892,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -1081,18 +1079,11 @@
       <c r="AU3" t="n">
         <v>1</v>
       </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>1</v>
       </c>
@@ -1274,19 +1265,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>1</v>
       </c>
@@ -1354,7 +1337,7 @@
 Revised: June 18, 2022</t>
         </is>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>44727</v>
       </c>
       <c r="Q5" t="n">
@@ -1375,7 +1358,7 @@
           <t>August 3,2021</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44424</v>
       </c>
       <c r="V5" t="inlineStr">
@@ -1464,18 +1447,11 @@
       <c r="AU5" t="n">
         <v>1</v>
       </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1553,7 @@
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44586</v>
       </c>
       <c r="X6" t="inlineStr">
@@ -1653,19 +1629,12 @@
       <c r="AT6" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>1</v>
       </c>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>0</v>
       </c>
@@ -1702,7 +1671,6 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>2</v>
       </c>
@@ -1765,7 +1733,7 @@
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>44586</v>
       </c>
       <c r="X7" t="inlineStr">
@@ -1841,19 +1809,11 @@
       <c r="AT7" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>0</v>
       </c>
@@ -2022,18 +1982,9 @@
       <c r="AS8" t="n">
         <v>0</v>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
         <v>1</v>
       </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>0</v>
       </c>
@@ -2210,20 +2161,12 @@
       <c r="AS9" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>1</v>
       </c>
@@ -2400,20 +2343,12 @@
       <c r="AS10" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
       </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
@@ -2475,7 +2410,7 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="3" t="n">
         <v>45286</v>
       </c>
       <c r="P11" t="inlineStr">
@@ -2493,19 +2428,19 @@
           <t>LMS 05-2023</t>
         </is>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="3" t="n">
         <v>45035</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="X11" t="inlineStr">
@@ -2579,21 +2514,14 @@
       <c r="AT11" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="n">
         <v>1</v>
       </c>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>1</v>
       </c>
@@ -2655,7 +2583,7 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>45316</v>
       </c>
       <c r="P12" t="inlineStr">
@@ -2673,19 +2601,19 @@
           <t>LMS 04-2023</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <v>45035</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>45064</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="X12" t="inlineStr">
@@ -2759,17 +2687,9 @@
       <c r="AT12" t="n">
         <v>9.24</v>
       </c>
-      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="n">
         <v>1</v>
       </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>1</v>
       </c>
@@ -2831,10 +2751,10 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>45286</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>45280</v>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2847,19 +2767,19 @@
           <t>LMS 05-2023</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <v>45035</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="X13" t="inlineStr">
@@ -2941,10 +2861,6 @@
       <c r="AV13" t="n">
         <v>1</v>
       </c>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -2953,7 +2869,6 @@
       <c r="BB13" t="n">
         <v>1</v>
       </c>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>1</v>
       </c>
@@ -3015,10 +2930,10 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>45316</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45310</v>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3031,19 +2946,19 @@
           <t>LMS 04-2023</t>
         </is>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="3" t="n">
         <v>45035</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>45064</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="X14" t="inlineStr">
@@ -3125,10 +3040,6 @@
       <c r="AV14" t="n">
         <v>1</v>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -3137,7 +3048,6 @@
       <c r="BB14" t="n">
         <v>1</v>
       </c>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>1</v>
       </c>
@@ -3199,10 +3109,10 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="3" t="n">
         <v>45286</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>45628</v>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3215,19 +3125,19 @@
           <t>LMS 06-2023</t>
         </is>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="3" t="n">
         <v>45035</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>45066</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="X15" t="inlineStr">
@@ -3309,10 +3219,6 @@
       <c r="AV15" t="n">
         <v>1</v>
       </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -3321,7 +3227,6 @@
       <c r="BB15" t="n">
         <v>1</v>
       </c>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>0</v>
       </c>
@@ -3501,19 +3406,12 @@
       <c r="AT16" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="n">
         <v>0</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="n">
         <v>2</v>
       </c>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>1</v>
       </c>
@@ -3577,10 +3475,10 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="3" t="n">
         <v>45682</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45280</v>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3689,14 +3587,6 @@
       <c r="AT17" t="n">
         <v>1.25</v>
       </c>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr">
         <is>
           <t>1st</t>
@@ -3765,10 +3655,10 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>45804</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45800</v>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3879,14 +3769,6 @@
       <c r="AT18" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr">
         <is>
           <t>1st</t>
@@ -3955,10 +3837,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>45682</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45629</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4067,14 +3949,6 @@
       <c r="AT19" t="n">
         <v>1.25</v>
       </c>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr">
         <is>
           <t>1st</t>
@@ -4143,7 +4017,7 @@
       <c r="N20" t="n">
         <v>0.15</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>45952</v>
       </c>
       <c r="P20" t="inlineStr">
@@ -4161,19 +4035,19 @@
           <t>2025-03-001</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>45611</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>45622</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>45625</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>46007</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -4246,15 +4120,6 @@
       <c r="AS20" t="n">
         <v>0</v>
       </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr">
         <is>
           <t>1st</t>
@@ -4343,10 +4208,10 @@
           <t>INFRA 2024-07-005</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>45468</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>45474</v>
       </c>
       <c r="U21" t="inlineStr">
@@ -4432,15 +4297,6 @@
       <c r="AS21" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
       <c r="BC21" t="inlineStr">
         <is>
           <t>4th</t>
@@ -4627,14 +4483,6 @@
       <c r="AT22" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="inlineStr">
         <is>
           <t>1st</t>
@@ -4723,19 +4571,19 @@
           <t>INF-LMS-2024-01</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>45244</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>45320</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>45434</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -4806,15 +4654,6 @@
       <c r="AS23" t="n">
         <v>0.1476999999999999</v>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr">
         <is>
           <t>1st</t>
@@ -4903,19 +4742,19 @@
           <t>INF-LMS-2024-02</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>45244</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45320</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45434</v>
       </c>
       <c r="X24" t="inlineStr">
@@ -4986,15 +4825,6 @@
       <c r="AS24" t="n">
         <v>0</v>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5002,6 +4832,79 @@
       </c>
       <c r="BD24" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region IV-B/Region IV-B_LMS.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,2613 +447,2642 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="206" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="42" customWidth="1" min="15" max="15"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
+    <col width="50" customWidth="1" min="17" max="17"/>
+    <col width="33" customWidth="1" min="18" max="18"/>
+    <col width="33" customWidth="1" min="19" max="19"/>
+    <col width="33" customWidth="1" min="20" max="20"/>
+    <col width="33" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="72" customWidth="1" min="24" max="24"/>
+    <col width="99" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>109901</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Tambunan ES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>BOAC (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1STY4CL SCHOOL BLDG (WITH COMMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>20455972.2891</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="n">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>44788</v>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Z2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>110339</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Mamalao Mangyan School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>BACO</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>20188286.0326684</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>20087944.35</v>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>April 05, 2022</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>March 07, 2022</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020 - R IV-B - Oriental Mindoro - 001</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>015-2021</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>July 06, 2021</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>July 14, 2021</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>July 26, 2021</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>Aug. 11, 2021</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>Aug. 31, 2021</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>CMSEL Construction and Developer</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="4" t="n"/>
+      <c r="Z3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>170036</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Bailan ES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>BULALACAO (SAN PEDRO)</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>19229984.41433875</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>18180121.46</v>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>June 15, 2022</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>June 14, 2022</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020 - R IV-B - Oriental Mindoro - 002</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>019-2021</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>July 06, 2021</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>July 14, 2021</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>July 26, 2021</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>Aug. 11, 2021</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>Sept. 03, 2021</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>Orient Star Construction Inc.</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>with contract time extension</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Z4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>111525</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Nasuduan ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>19185222.79940042</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>17849626.85</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>May 19, 2022
 Revised: June 18, 2022</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="6" t="n">
         <v>44727</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>INFRA 2021-03</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>July 27,2021</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>August 3,2021</t>
         </is>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>44424</v>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>Sept. 10, 2021</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>Sept. 14, 2021</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>Maryknoll Builders and Supply</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Z5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>CALAPAN CITY</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>111547</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Silonay ES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CITY OF CALAPAN (Capital)</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>8578776.109999999</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>8479929.949999999</v>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>2021-AdmS4(006)-BI-CB-013a-C200</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>44586</v>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>WERR COPR. INTL. JV. WITH BANCAL CONST, &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL FURNITURE NOT YET DELIVERED</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>CALAPAN CITY</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>111547</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Silonay ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>CITY OF CALAPAN (Capital)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>5719184.08</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>8479929.949999999</v>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>2021-AdmS4(006)-BI-CB-013a-C200</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>44586</v>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>WERR COPR. INTL. JV. WITH BANCAL CONST, &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL FURNITURE NOT YET DELIVERED</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="Z7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>109922</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Bacongbacong PS</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Gasan</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>12631518.48330745</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="5" t="n">
         <v>0.62</v>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="Z8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Occidental Mindoro</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>110128</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>EMOK ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>18796598.33728591</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="5" t="n">
         <v>0.1582</v>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="Z9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>305600</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Tabon National High School</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Quezon</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>18320194.75545644</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="P10" s="4" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>110744</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Maracañao Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>AGUTAYA</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="G11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>20470791.2919</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>20622113.46</v>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="n">
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6" t="n">
         <v>45286</v>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 002</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>LMS 05-2023</t>
         </is>
       </c>
-      <c r="S11" s="5" t="n">
+      <c r="S11" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T11" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>CMSEL CONST. AND DEVELOPER</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Z11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>111254</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Agbay-Ang ES</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>19037682.2232</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>21050000</v>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="n">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
         <v>45316</v>
       </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 001</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>LMS 04-2023</t>
         </is>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="6" t="n">
         <v>45064</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Z12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>130206</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Mungos Mangyan Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>BONGABONG</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>20880049.26</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>20622113.46</v>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="n">
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="n">
         <v>45286</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 002</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>LMS 05-2023</t>
         </is>
       </c>
-      <c r="S13" s="5" t="n">
+      <c r="S13" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>CMSEL CONST. AND DEVELOPER</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="n">
+      <c r="Y13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="Z13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>136953</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Naswak Hatubuan Bangon Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>BONGABONG</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>21303170.78</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>21050000</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="n">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6" t="n">
         <v>45316</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="6" t="n">
         <v>45310</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 001</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>LMS 04-2023</t>
         </is>
       </c>
-      <c r="S14" s="5" t="n">
+      <c r="S14" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="6" t="n">
         <v>45064</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="Z14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>137123</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Cambayang Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>BULALACAO (SAN PEDRO)</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE </t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>14291013.26</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>14120000</v>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="n">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6" t="n">
         <v>45286</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="6" t="n">
         <v>45628</v>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 003</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>LMS 06-2023</t>
         </is>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="S15" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="T15" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="6" t="n">
         <v>45066</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="n">
+      <c r="Y15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="Z15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>171501</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Manggapin Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>PUERTO PRINCESA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM AT MANGGAPIN ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>22354334.98</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>22131576</v>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>July 25, 2024   Revised: August 23, 2024</t>
         </is>
       </c>
-      <c r="P16" s="4" t="inlineStr">
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>Aug. 26, 2024</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-10-03</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-10-03</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>Oct. 25, 2023</t>
         </is>
       </c>
-      <c r="T16" s="4" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>Oct. 31, 2023</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
         <is>
           <t>Nov. 13, 2023</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="V16" s="5" t="inlineStr">
         <is>
           <t>Nov. 16, 2023</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
         <is>
           <t>Nov. 21, 2023</t>
         </is>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>Maryknoll Builders and Supply</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="n">
+      <c r="Y16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" s="4" t="n"/>
+      <c r="Z16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>137017</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Magdayaga Elementary School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Bongabong</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>21109748.66</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>20837923.61</v>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="n">
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - ORIENTAL MINDORO - 003</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>LMS 15-2024</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>Nov. 29, 2023</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>Dec. 7, 2023</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>Dec. 20, 2023</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>Jan. 4, 2024</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>CMSEL CONST. AND DEVELOPER</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="n">
+      <c r="Y17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="Z17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>306032</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Bailan Katutubong Mangyan High School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Bulalcao</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>21994317.96</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>21725000</v>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="n">
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="n">
         <v>45804</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="6" t="n">
         <v>45800</v>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - ORIENTAL MINDORO - 002</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>LMS 14-2024</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>Nov. 29, 2023</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>Dec. 7, 2023</t>
         </is>
       </c>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="U18" s="5" t="inlineStr">
         <is>
           <t>Dec. 20, 2023</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="5" t="inlineStr">
         <is>
           <t>Jan. 4, 2024</t>
         </is>
       </c>
-      <c r="W18" s="4" t="inlineStr">
+      <c r="W18" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>With contract time extensions due to frequent rains and armed conflict. Final payment on process.</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="n"/>
+      <c r="Z18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>137102</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>EM Fabella-Ansaldo Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Roxas</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>20756365.76</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>20230000</v>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="n">
+      <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6" t="n">
         <v>45629</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - ORIENTAL MINDORO - 001</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>LMS 13-2024</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>Nov. 29, 2023</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>Dec. 7, 2023</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>Dec. 20, 2023</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>Jan. 4, 2024</t>
         </is>
       </c>
-      <c r="W19" s="4" t="inlineStr">
+      <c r="W19" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="n">
+      <c r="Y19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z19" s="4" t="n"/>
+      <c r="Z19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>111056</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Batang-Batang Beach Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>NARRA</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>15827000</v>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="N20" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="6" t="n">
         <v>45952</v>
       </c>
-      <c r="P20" s="4" t="inlineStr">
+      <c r="P20" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>2024-01-001_INFRA</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>2025-03-001</t>
         </is>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="6" t="n">
         <v>45611</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="6" t="n">
         <v>45622</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>45625</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="6" t="n">
         <v>46007</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <v>45742</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>Maryknoll Builders &amp; Ssupply</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>NEGOTIATED PROCUREMENT</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="n"/>
+      <c r="Z20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>111511</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Cabayugan ES - Sugod Extension</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>PUERTO PRINCESA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>21248071.44</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>20966655</v>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
+      <c r="N21" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>May 18, 2025</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr">
+      <c r="P21" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - PUERTO PRINCESA CITY - 002</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-07-005</t>
         </is>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="6" t="n">
         <v>45468</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <v>45474</v>
       </c>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="U21" s="5" t="inlineStr">
         <is>
           <t>July 15, 2024</t>
         </is>
       </c>
-      <c r="V21" s="4" t="inlineStr">
+      <c r="V21" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W21" s="4" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr">
         <is>
           <t>Sept. 19, 2024</t>
         </is>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>Maryknoll Builders &amp; Ssupply</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="n">
+      <c r="Y21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z21" s="4" t="n"/>
+      <c r="Z21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>111520</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Makirawa ES</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>PUERTO PRINCESA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>20830359.96</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>20620761</v>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>January 15, 2025</t>
         </is>
       </c>
-      <c r="P22" s="4" t="inlineStr">
+      <c r="P22" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - PUERTO PRINCESA CITY - 001</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-11-04</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>Nov. 22, 2023</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>Nov. 28, 2023</t>
         </is>
       </c>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>Dec. 11, 2023</t>
         </is>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>Dec. 22, 2023</t>
         </is>
       </c>
-      <c r="W22" s="4" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>May 13, 2024</t>
         </is>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>Joint Venture of Ian Jason Construction &amp; Supply and RBM2 Construction</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>For Final Inspection</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="n"/>
+      <c r="Z22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>171008</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Palati PS</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>ODIONGAN</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>LMSP - PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>19645773.82</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
+      <c r="N23" s="5" t="n">
         <v>0.7977</v>
       </c>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P23" s="4" t="inlineStr">
+      <c r="P23" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>INF-LMS-2024-01</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>INF-LMS-2024-01</t>
         </is>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="6" t="n">
         <v>45244</v>
       </c>
-      <c r="T23" s="5" t="n">
+      <c r="T23" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U23" s="5" t="n">
+      <c r="U23" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="6" t="n">
         <v>45320</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>RMR Construction and Trading</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="n">
+      <c r="Y23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z23" s="4" t="n"/>
+      <c r="Z23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>111437</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Layag Cultural Minority School</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>LMSP - PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>15486264.53</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
+      <c r="N24" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O24" s="4" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P24" s="4" t="inlineStr">
+      <c r="P24" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>INF-LMS-2024-02</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>INF-LMS-2024-02</t>
         </is>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="6" t="n">
         <v>45244</v>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="6" t="n">
         <v>45320</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>RMR Construction and Trading</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="n">
+      <c r="Y24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z24" s="4" t="n"/>
+      <c r="Z24" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region IV-B/Region IV-B_LMS.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_LMS.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region IV-B/Region IV-B_LMS.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,2640 +453,2715 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="32" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="206" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
-    <col width="42" customWidth="1" min="15" max="15"/>
-    <col width="33" customWidth="1" min="16" max="16"/>
-    <col width="50" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="206" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="42" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="17" max="17"/>
+    <col width="50" customWidth="1" min="18" max="18"/>
     <col width="33" customWidth="1" min="19" max="19"/>
     <col width="33" customWidth="1" min="20" max="20"/>
     <col width="33" customWidth="1" min="21" max="21"/>
     <col width="33" customWidth="1" min="22" max="22"/>
     <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="72" customWidth="1" min="24" max="24"/>
-    <col width="99" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="72" customWidth="1" min="25" max="25"/>
+    <col width="99" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>109901</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Tambunan ES</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>BOAC (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1STY4CL SCHOOL BLDG (WITH COMMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>20455972.2891</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>44788</v>
       </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q2" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="X2" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" s="7" t="n"/>
+      <c r="Z2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>110339</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Mamalao Mangyan School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>BACO</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>20188286.0326684</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>20087944.35</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>April 05, 2022</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>March 07, 2022</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020 - R IV-B - Oriental Mindoro - 001</t>
         </is>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>015-2021</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>July 06, 2021</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>July 14, 2021</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>July 26, 2021</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>Aug. 11, 2021</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>Aug. 31, 2021</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>CMSEL Construction and Developer</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Z3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="7" t="n"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>170036</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Bailan ES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>BULALACAO (SAN PEDRO)</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>19229984.41433875</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>18180121.46</v>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>June 15, 2022</t>
         </is>
       </c>
-      <c r="P4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>June 14, 2022</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020 - R IV-B - Oriental Mindoro - 002</t>
         </is>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>019-2021</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>July 06, 2021</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>July 14, 2021</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>July 26, 2021</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>Aug. 11, 2021</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>Sept. 03, 2021</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>Orient Star Construction Inc.</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>with contract time extension</t>
         </is>
       </c>
-      <c r="Z4" s="7" t="n"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>111525</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Nasuduan ES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>19185222.79940042</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>17849626.85</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>May 19, 2022
 Revised: June 18, 2022</t>
         </is>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="Q5" s="6" t="n">
         <v>44727</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>INFRA 2021-03</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>July 27,2021</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>August 3,2021</t>
         </is>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="V5" s="6" t="n">
         <v>44424</v>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>Sept. 10, 2021</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>Sept. 14, 2021</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>Maryknoll Builders and Supply</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Z5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="7" t="n"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>CALAPAN CITY</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>111547</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Silonay ES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>CITY OF CALAPAN (Capital)</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>8578776.109999999</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>8479929.949999999</v>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="P6" s="5" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>2021-AdmS4(006)-BI-CB-013a-C200</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>44586</v>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>WERR COPR. INTL. JV. WITH BANCAL CONST, &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL FURNITURE NOT YET DELIVERED</t>
         </is>
       </c>
-      <c r="Z6" s="7" t="n"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>CALAPAN CITY</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>111547</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Silonay ES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>CITY OF CALAPAN (Capital)</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>5719184.08</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>8479929.949999999</v>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>2021-AdmS4(006)-BI-CB-013a-C200</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>CO IMPLEMENTED</t>
         </is>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="X7" s="6" t="n">
         <v>44586</v>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>WERR COPR. INTL. JV. WITH BANCAL CONST, &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL FURNITURE NOT YET DELIVERED</t>
         </is>
       </c>
-      <c r="Z7" s="7" t="n"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>132</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>109922</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Bacongbacong PS</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Gasan</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>12631518.48330745</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="O8" s="5" t="n">
         <v>0.62</v>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="X8" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z8" s="7" t="n"/>
+      <c r="Z8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Occidental Mindoro</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>110128</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>EMOK ES</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>18796598.33728591</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="O9" s="5" t="n">
         <v>0.1582</v>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="P9" s="5" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="R9" s="5" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="T9" s="5" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Z9" s="7" t="n"/>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>305600</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Tabon National High School</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>Quezon</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>18320194.75545644</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="O10" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="P10" s="5" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="U10" s="5" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>terminated (implemented by C.O)</t>
         </is>
       </c>
-      <c r="Z10" s="7" t="n"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>110744</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Maracañao Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>AGUTAYA</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>20470791.2919</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>20622113.46</v>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6" t="n">
         <v>45286</v>
       </c>
-      <c r="P11" s="5" t="inlineStr">
+      <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 002</t>
         </is>
       </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>LMS 05-2023</t>
         </is>
       </c>
-      <c r="S11" s="6" t="n">
+      <c r="T11" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="U11" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="V11" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V11" s="6" t="n">
+      <c r="W11" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="W11" s="6" t="n">
+      <c r="X11" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>CMSEL CONST. AND DEVELOPER</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="n">
+      <c r="Z11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z11" s="7" t="n"/>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>236</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>111254</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Agbay-Ang ES</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>ALCANTARA</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>19037682.2232</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>21050000</v>
       </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
         <v>45316</v>
       </c>
-      <c r="P12" s="5" t="inlineStr">
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q12" s="5" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 001</t>
         </is>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>LMS 04-2023</t>
         </is>
       </c>
-      <c r="S12" s="6" t="n">
+      <c r="T12" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="U12" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="V12" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="W12" s="6" t="n">
         <v>45064</v>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="X12" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="n">
+      <c r="Z12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z12" s="7" t="n"/>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>130206</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Mungos Mangyan Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>BONGABONG</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>20880049.26</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>20622113.46</v>
       </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="n">
         <v>45286</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="Q13" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 002</t>
         </is>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>LMS 05-2023</t>
         </is>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="T13" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="U13" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="V13" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="W13" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="X13" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>CMSEL CONST. AND DEVELOPER</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="n">
+      <c r="Z13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="7" t="n"/>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>318</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>136953</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Naswak Hatubuan Bangon Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>BONGABONG</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>21303170.78</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>21050000</v>
       </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6" t="n">
         <v>45316</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="Q14" s="6" t="n">
         <v>45310</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 001</t>
         </is>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>LMS 04-2023</t>
         </is>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="T14" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="U14" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="V14" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="W14" s="6" t="n">
         <v>45064</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="X14" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="n">
+      <c r="Z14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" s="7" t="n"/>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>319</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>137123</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Cambayang Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>BULALACAO (SAN PEDRO)</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE </t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>14291013.26</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>14120000</v>
       </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="n">
         <v>45286</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="Q15" s="6" t="n">
         <v>45628</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - MIMAROPA - ORIENTAL MINDORO - 003</t>
         </is>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>LMS 06-2023</t>
         </is>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="T15" s="6" t="n">
         <v>45035</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="U15" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="V15" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="W15" s="6" t="n">
         <v>45066</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="X15" s="6" t="n">
         <v>45072</v>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="n">
+      <c r="Z15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z15" s="7" t="n"/>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>320</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>171501</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Manggapin Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>PUERTO PRINCESA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM AT MANGGAPIN ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>22354334.98</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>22131576</v>
       </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>July 25, 2024   Revised: August 23, 2024</t>
         </is>
       </c>
-      <c r="P16" s="5" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>Aug. 26, 2024</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-10-03</t>
         </is>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-10-03</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>Oct. 25, 2023</t>
         </is>
       </c>
-      <c r="T16" s="5" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
         <is>
           <t>Oct. 31, 2023</t>
         </is>
       </c>
-      <c r="U16" s="5" t="inlineStr">
+      <c r="V16" s="5" t="inlineStr">
         <is>
           <t>Nov. 13, 2023</t>
         </is>
       </c>
-      <c r="V16" s="5" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
         <is>
           <t>Nov. 16, 2023</t>
         </is>
       </c>
-      <c r="W16" s="5" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>Nov. 21, 2023</t>
         </is>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>Maryknoll Builders and Supply</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="n">
+      <c r="Z16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" s="7" t="n"/>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>434</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>137017</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Magdayaga Elementary School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Bongabong</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>21109748.66</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>20837923.61</v>
       </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="Q17" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - ORIENTAL MINDORO - 003</t>
         </is>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>LMS 15-2024</t>
         </is>
       </c>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>Nov. 29, 2023</t>
         </is>
       </c>
-      <c r="T17" s="5" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>Dec. 7, 2023</t>
         </is>
       </c>
-      <c r="U17" s="5" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>Dec. 20, 2023</t>
         </is>
       </c>
-      <c r="V17" s="5" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>Jan. 4, 2024</t>
         </is>
       </c>
-      <c r="W17" s="5" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>CMSEL CONST. AND DEVELOPER</t>
         </is>
       </c>
-      <c r="Y17" s="5" t="n">
+      <c r="Z17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="7" t="n"/>
+      <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>435</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>306032</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Bailan Katutubong Mangyan High School</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Bulalcao</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>21994317.96</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>21725000</v>
       </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="n">
         <v>45804</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="Q18" s="6" t="n">
         <v>45800</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - ORIENTAL MINDORO - 002</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>LMS 14-2024</t>
         </is>
       </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>Nov. 29, 2023</t>
         </is>
       </c>
-      <c r="T18" s="5" t="inlineStr">
+      <c r="U18" s="5" t="inlineStr">
         <is>
           <t>Dec. 7, 2023</t>
         </is>
       </c>
-      <c r="U18" s="5" t="inlineStr">
+      <c r="V18" s="5" t="inlineStr">
         <is>
           <t>Dec. 20, 2023</t>
         </is>
       </c>
-      <c r="V18" s="5" t="inlineStr">
+      <c r="W18" s="5" t="inlineStr">
         <is>
           <t>Jan. 4, 2024</t>
         </is>
       </c>
-      <c r="W18" s="5" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>With contract time extensions due to frequent rains and armed conflict. Final payment on process.</t>
         </is>
       </c>
-      <c r="Z18" s="7" t="n"/>
+      <c r="AA18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>436</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>137102</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>EM Fabella-Ansaldo Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Roxas</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>20756365.76</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>20230000</v>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="n">
         <v>45682</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="Q19" s="6" t="n">
         <v>45629</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - ORIENTAL MINDORO - 001</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>LMS 13-2024</t>
         </is>
       </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>Nov. 29, 2023</t>
         </is>
       </c>
-      <c r="T19" s="5" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>Dec. 7, 2023</t>
         </is>
       </c>
-      <c r="U19" s="5" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>Dec. 20, 2023</t>
         </is>
       </c>
-      <c r="V19" s="5" t="inlineStr">
+      <c r="W19" s="5" t="inlineStr">
         <is>
           <t>Jan. 4, 2024</t>
         </is>
       </c>
-      <c r="W19" s="5" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>A.D.L. CONSTRAK OPC</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="n">
+      <c r="Z19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z19" s="7" t="n"/>
+      <c r="AA19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>437</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>111056</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Batang-Batang Beach Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>NARRA</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>15827000</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
+      <c r="O20" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="P20" s="6" t="n">
         <v>45952</v>
       </c>
-      <c r="P20" s="5" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>2024-01-001_INFRA</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>2025-03-001</t>
         </is>
       </c>
-      <c r="S20" s="6" t="n">
+      <c r="T20" s="6" t="n">
         <v>45611</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="U20" s="6" t="n">
         <v>45622</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="V20" s="6" t="n">
         <v>45625</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="W20" s="6" t="n">
         <v>46007</v>
       </c>
-      <c r="W20" s="6" t="n">
+      <c r="X20" s="6" t="n">
         <v>45742</v>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>Maryknoll Builders &amp; Ssupply</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>NEGOTIATED PROCUREMENT</t>
         </is>
       </c>
-      <c r="Z20" s="7" t="n"/>
+      <c r="AA20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>438</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>111511</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Cabayugan ES - Sugod Extension</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>PUERTO PRINCESA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>21248071.44</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>20966655</v>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N21" s="5" t="n">
+      <c r="O21" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="P21" s="5" t="inlineStr">
         <is>
           <t>May 18, 2025</t>
         </is>
       </c>
-      <c r="P21" s="5" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - PUERTO PRINCESA CITY - 002</t>
         </is>
       </c>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-07-005</t>
         </is>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="T21" s="6" t="n">
         <v>45468</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="U21" s="6" t="n">
         <v>45474</v>
       </c>
-      <c r="U21" s="5" t="inlineStr">
+      <c r="V21" s="5" t="inlineStr">
         <is>
           <t>July 15, 2024</t>
         </is>
       </c>
-      <c r="V21" s="5" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W21" s="5" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>Sept. 19, 2024</t>
         </is>
       </c>
-      <c r="X21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>Maryknoll Builders &amp; Ssupply</t>
         </is>
       </c>
-      <c r="Y21" s="5" t="n">
+      <c r="Z21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z21" s="7" t="n"/>
+      <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>439</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>111520</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Makirawa ES</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>PUERTO PRINCESA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>20830359.96</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>20620761</v>
       </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
         <is>
           <t>January 15, 2025</t>
         </is>
       </c>
-      <c r="P22" s="5" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - MIMAROPA - PUERTO PRINCESA CITY - 001</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-11-04</t>
         </is>
       </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>Nov. 22, 2023</t>
         </is>
       </c>
-      <c r="T22" s="5" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>Nov. 28, 2023</t>
         </is>
       </c>
-      <c r="U22" s="5" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>Dec. 11, 2023</t>
         </is>
       </c>
-      <c r="V22" s="5" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>Dec. 22, 2023</t>
         </is>
       </c>
-      <c r="W22" s="5" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>May 13, 2024</t>
         </is>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>Joint Venture of Ian Jason Construction &amp; Supply and RBM2 Construction</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>For Final Inspection</t>
         </is>
       </c>
-      <c r="Z22" s="7" t="n"/>
+      <c r="AA22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>440</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>171008</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Palati PS</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>ODIONGAN</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>LMSP - PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>19645773.82</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N23" s="5" t="n">
+      <c r="O23" s="5" t="n">
         <v>0.7977</v>
       </c>
-      <c r="O23" s="5" t="inlineStr">
+      <c r="P23" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P23" s="5" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q23" s="5" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>INF-LMS-2024-01</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>INF-LMS-2024-01</t>
         </is>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="T23" s="6" t="n">
         <v>45244</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="U23" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="V23" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="W23" s="6" t="n">
         <v>45320</v>
       </c>
-      <c r="W23" s="6" t="n">
+      <c r="X23" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>RMR Construction and Trading</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="n">
+      <c r="Z23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z23" s="7" t="n"/>
+      <c r="AA23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>441</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>111437</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Layag Cultural Minority School</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>LMSP - PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>15486264.53</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N24" s="5" t="n">
+      <c r="O24" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O24" s="5" t="inlineStr">
+      <c r="P24" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P24" s="5" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>INF-LMS-2024-02</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>INF-LMS-2024-02</t>
         </is>
       </c>
-      <c r="S24" s="6" t="n">
+      <c r="T24" s="6" t="n">
         <v>45244</v>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="U24" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="V24" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="V24" s="6" t="n">
+      <c r="W24" s="6" t="n">
         <v>45320</v>
       </c>
-      <c r="W24" s="6" t="n">
+      <c r="X24" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>RMR Construction and Trading</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="n">
+      <c r="Z24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z24" s="7" t="n"/>
+      <c r="AA24" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
